--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,81 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>terrifying</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>stupid</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>dark</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
@@ -130,79 +127,91 @@
     <t>[UNK]</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>right</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>opening</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>much</t>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
@@ -211,40 +220,37 @@
     <t>real</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -605,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.9090909090909091</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -727,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,16 +801,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,16 +851,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.76</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.7543859649122807</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.875</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,16 +1051,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,16 +1101,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1174,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7647058823529411</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.5925925925925926</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.5294117647058824</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.4736842105263158</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,49 +1380,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7368421052631579</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17">
-        <v>0.4375</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.4242424242424243</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L18">
         <v>14</v>
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7058823529411765</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.3898305084745763</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1530,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.3132969034608379</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L20">
-        <v>344</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>344</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>754</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1580,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6956521739130435</v>
+        <v>0.625</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.2950819672131147</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,7 +1630,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6538461538461539</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C22">
         <v>17</v>
@@ -1642,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.2407407407407407</v>
+        <v>0.2914389799635702</v>
       </c>
       <c r="L22">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="M22">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1666,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>41</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.644927536231884</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.2391304347826087</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6382978723404256</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.22</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L24">
         <v>11</v>
@@ -1766,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,13 +1780,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.2195121951219512</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1816,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1830,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6071428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.2191780821917808</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1866,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1874,13 +1880,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1892,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.2153846153846154</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1924,13 +1930,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4871794871794872</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1942,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.2105263157894737</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1966,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1974,13 +1980,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1992,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.1851851851851852</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2016,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2024,13 +2030,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3571428571428572</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2042,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.1830985915492958</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2074,87 +2080,63 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.282051282051282</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>14</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K31">
-        <v>0.1641791044776119</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.05743243243243244</v>
-      </c>
-      <c r="C32">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>0.15</v>
-      </c>
-      <c r="F32">
-        <v>0.85</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>279</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="K32">
-        <v>0.1411764705882353</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2166,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.1259259259259259</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L33">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2192,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>472</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.0948905109489051</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2218,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>124</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.08603896103896104</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2244,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>563</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.0812720848056537</v>
+        <v>0.09814814814814815</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2270,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>260</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.0783132530120482</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L37">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2296,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>612</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>0.07038123167155426</v>
+        <v>0.0858433734939759</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2322,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>317</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39">
-        <v>0.06451612903225806</v>
+        <v>0.08253968253968254</v>
       </c>
       <c r="L39">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2348,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1624</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K40">
-        <v>0.06349206349206349</v>
+        <v>0.07917888563049853</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2374,33 +2356,137 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.06991869918699187</v>
+      </c>
+      <c r="L41">
+        <v>43</v>
+      </c>
+      <c r="M41">
+        <v>44</v>
+      </c>
+      <c r="N41">
+        <v>0.98</v>
+      </c>
+      <c r="O41">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K41">
-        <v>0.04615384615384616</v>
-      </c>
-      <c r="L41">
+      <c r="K42">
+        <v>0.0622478386167147</v>
+      </c>
+      <c r="L42">
+        <v>108</v>
+      </c>
+      <c r="M42">
+        <v>109</v>
+      </c>
+      <c r="N42">
+        <v>0.99</v>
+      </c>
+      <c r="O42">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.05121638924455826</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.03819444444444445</v>
+      </c>
+      <c r="L44">
+        <v>11</v>
+      </c>
+      <c r="M44">
+        <v>11</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M41">
-        <v>37</v>
-      </c>
-      <c r="N41">
-        <v>0.97</v>
-      </c>
-      <c r="O41">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>744</v>
+      <c r="K45">
+        <v>0.03169014084507042</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>0.38</v>
+      </c>
+      <c r="O45">
+        <v>0.62</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
